--- a/target/classes/template.xlsx
+++ b/target/classes/template.xlsx
@@ -301,9 +301,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -433,9 +430,6 @@
     <xf numFmtId="1" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -455,6 +449,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,11 +804,12 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="22" max="22" width="58" customWidth="1"/>
   </cols>
   <sheetData>
@@ -816,7 +817,7 @@
       <c r="A1" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="58" t="s">
         <v>13</v>
       </c>
@@ -854,49 +855,49 @@
     </row>
     <row r="2" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="57"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="61"/>
@@ -907,379 +908,379 @@
       <c r="V2" s="56"/>
     </row>
     <row r="3" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="52" t="s">
+      <c r="T3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="48" t="s">
+      <c r="U3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="53"/>
+      <c r="V3" s="51"/>
     </row>
     <row r="4" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="3"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="53"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="53"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="53"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="3"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="53"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="3"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="53"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="3"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="53"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="53"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
     <row r="11" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="53"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
     <row r="12" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="3"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="53"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="3"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="53"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="53"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="53"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
     <row r="16" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="3"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="53"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -1296,5 +1297,6 @@
     <mergeCell ref="T1:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/classes/template.xlsx
+++ b/target/classes/template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Trưa (10h-13h)</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>SMS</t>
+  </si>
+  <si>
+    <t>SMS không dấu</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -455,6 +458,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -801,60 +807,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="22" max="22" width="58" customWidth="1"/>
+    <col min="22" max="23" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="31"/>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="61" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="R1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="55" t="s">
+      <c r="U1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="56" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
+      <c r="W1" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
       <c r="B2" s="46" t="s">
         <v>27</v>
       </c>
@@ -900,14 +909,15 @@
       <c r="P2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-    </row>
-    <row r="3" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+    </row>
+    <row r="3" spans="1:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>20</v>
       </c>
@@ -972,8 +982,9 @@
         <v>28</v>
       </c>
       <c r="V3" s="51"/>
-    </row>
-    <row r="4" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="55"/>
+    </row>
+    <row r="4" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
@@ -996,8 +1007,9 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
@@ -1020,8 +1032,9 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
       <c r="B6" s="1"/>
       <c r="C6" s="6"/>
@@ -1044,8 +1057,9 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="52"/>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
@@ -1068,8 +1082,9 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="52"/>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
@@ -1092,8 +1107,9 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52"/>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
@@ -1116,8 +1132,9 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
@@ -1140,8 +1157,9 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
@@ -1164,8 +1182,9 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
@@ -1188,8 +1207,9 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="B13" s="1"/>
       <c r="C13" s="6"/>
@@ -1212,8 +1232,9 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="1"/>
       <c r="C14" s="6"/>
@@ -1236,8 +1257,9 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
       <c r="B15" s="1"/>
       <c r="C15" s="6"/>
@@ -1260,8 +1282,9 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
       <c r="B16" s="1"/>
       <c r="C16" s="6"/>
@@ -1284,9 +1307,11 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="W1:W2"/>
     <mergeCell ref="V1:V2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="A1:A2"/>
